--- a/Lab3/Book.xlsx
+++ b/Lab3/Book.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanchernov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanchernov/PycharmProjects/Artificial-intelligence/Artificial-intelligence/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DD1059-1D43-9F4C-84AF-28B54236ABC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C932F3AE-4A78-F642-AD40-DB643421017E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" xr2:uid="{77111105-9FDA-224F-8D22-77AB3212406C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Тема</t>
   </si>
@@ -67,6 +67,90 @@
   </si>
   <si>
     <t>Изохорный процесс</t>
+  </si>
+  <si>
+    <t>Изобарный процесс</t>
+  </si>
+  <si>
+    <t>Изотермический процесс</t>
+  </si>
+  <si>
+    <t>Адиабатный процесс</t>
+  </si>
+  <si>
+    <t>Испарение</t>
+  </si>
+  <si>
+    <t>Теплообмен</t>
+  </si>
+  <si>
+    <t>Конденсация</t>
+  </si>
+  <si>
+    <t>Законы движения по окружности</t>
+  </si>
+  <si>
+    <t>Условия равновесия твердого тела</t>
+  </si>
+  <si>
+    <t>Закон Паскаля</t>
+  </si>
+  <si>
+    <t>Три закона Ньютона</t>
+  </si>
+  <si>
+    <t>Силы в природе</t>
+  </si>
+  <si>
+    <t>Идеально упругие тела</t>
+  </si>
+  <si>
+    <t>Гидростатика</t>
+  </si>
+  <si>
+    <t>Постоянный/переменный ток</t>
+  </si>
+  <si>
+    <t>Электродинамика</t>
+  </si>
+  <si>
+    <t>Механические колебания</t>
+  </si>
+  <si>
+    <t>Электрические колебания</t>
+  </si>
+  <si>
+    <t>Квантовая гравитация</t>
+  </si>
+  <si>
+    <t>Темная энергия</t>
+  </si>
+  <si>
+    <t>Темная материя</t>
+  </si>
+  <si>
+    <t>Общая теория относительности</t>
+  </si>
+  <si>
+    <t>Специальная теория относительности</t>
+  </si>
+  <si>
+    <t>Деление</t>
+  </si>
+  <si>
+    <t>Реакция</t>
+  </si>
+  <si>
+    <t>Стандартная модель</t>
+  </si>
+  <si>
+    <t>Компьютеры</t>
+  </si>
+  <si>
+    <t>Лазеры</t>
+  </si>
+  <si>
+    <t>Квантовая информация</t>
   </si>
 </sst>
 </file>
@@ -426,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC791E52-5A8D-A54D-965B-742330D84BF1}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,6 +702,566 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab3/Book.xlsx
+++ b/Lab3/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanchernov/PycharmProjects/Artificial-intelligence/Artificial-intelligence/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3604B934-3C03-8643-9DDB-A249152DD5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0332BFF6-3CBA-B741-938D-BFC76CB33848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" xr2:uid="{77111105-9FDA-224F-8D22-77AB3212406C}"/>
   </bookViews>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC791E52-5A8D-A54D-965B-742330D84BF1}">
   <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="AF45" sqref="AF45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
